--- a/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
+++ b/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
@@ -451,603 +451,813 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001410</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>信达澳银新能源产业股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>90.65</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2691</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>001616</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>嘉实环保低碳股票</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>89.19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.32</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4141</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>007084</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>天治转型升级混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>92.94</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>6.05</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>610002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银精华配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>77.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009437</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009438</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002168</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003984</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003985</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实新能源新材料股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005495</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信科技成长主题股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005496</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信科技成长主题股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003026</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003027</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009869</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实产业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009870</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实产业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001410</t>
+          <t>002168</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新能源产业股票</t>
+          <t>嘉实智能汽车股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>42.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001616</t>
+          <t>001410</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实环保低碳股票</t>
+          <t>信达澳银新能源产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000592</t>
+          <t>009869</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信改革红利股票</t>
+          <t>嘉实产业先锋混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>35.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000547</t>
+          <t>001616</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信健康民生混合</t>
+          <t>嘉实环保低碳股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>44.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165313</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信优势动力混合(LOF)</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>73.82</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6521</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>610002</t>
+          <t>009147</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银精华配置混合</t>
+          <t>建信新能源行业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>26.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8957</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009869</t>
+          <t>009870</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合A</t>
+          <t>嘉实产业先锋混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>91.81</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.37</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009870</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实产业先锋混合C</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010363</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
+          <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010460</t>
+          <t>008177</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴业研究精选混合</t>
+          <t>建信高股息主题股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007084</t>
+          <t>001166</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天治转型升级混合</t>
+          <t>建信环保产业股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001166</t>
+          <t>530001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信环保产业股票</t>
+          <t>建信恒久价值混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>75.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007484</t>
+          <t>010363</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信达澳银核心科技混合</t>
+          <t>信达澳银匠心臻选两年持有期混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>20.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001858</t>
+          <t>003985</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信鑫利灵活配置混合</t>
+          <t>嘉实新能源新材料股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>530001</t>
+          <t>010460</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>建信恒久价值混合</t>
+          <t>兴业研究精选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>75.11</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002168</t>
+          <t>610002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实智能汽车股票</t>
+          <t>信达澳银精华配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>000592</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>建信改革红利股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34.41</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008604</t>
+          <t>165313</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合C</t>
+          <t>建信优势动力混合(LOF)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>34.41</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>007484</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>信达澳银核心科技混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>43.95</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>005495</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>创金合信科技成长主题股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>43.95</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>001858</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>建信鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005496</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票C</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008177</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>建信高股息主题股票</t>
+          <t>建信健康民生混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>82.85</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>003985</t>
+          <t>005496</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票C</t>
+          <t>创金合信科技成长主题股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009147</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>建信新能源行业股票</t>
+          <t>江信瑞福灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>43.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>002631</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>江信瑞福灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
+          <t>43.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>007084</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>天治转型升级混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>008604</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
+          <t>广发稳安灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
+++ b/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2455,4 +2456,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
+++ b/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3120,4 +3121,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
+++ b/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3129,7 +3130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3140,17 +3141,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3160,14 +3181,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.11</v>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8011</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3176,14 +3219,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.98</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3192,13 +3257,439 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6797</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6270</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>17.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
+++ b/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3604,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3615,17 +3616,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3635,14 +3656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.13</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3651,14 +3694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.11</v>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3667,14 +3732,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>19.98</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="5">
@@ -3683,13 +3854,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
+++ b/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3775,7 +3776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,17 +3787,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3806,14 +3827,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.1</v>
       </c>
     </row>
     <row r="3">
@@ -3822,14 +3865,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.13</v>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3838,14 +3903,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.11</v>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3854,14 +3941,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.98</v>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4456</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3870,13 +3979,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
+++ b/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>7.61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.1</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>13.13</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>10.11</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>19.98</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.74</v>
       </c>
     </row>
@@ -583,6 +600,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016067</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3976</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016068</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1094,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1264,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1738,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2402,7 +3235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3598,7 +4431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
+++ b/数据整理/stocks/A股/深证主板/000049-德赛电池.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>7.61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4.1</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>13.13</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>10.11</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>19.98</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>17.74</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +2380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2571,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3235,7 +3688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4431,7 +4884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
